--- a/Electronics Calculator.xlsx
+++ b/Electronics Calculator.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="105" windowWidth="17040" windowHeight="10815"/>
+    <workbookView xWindow="300" yWindow="105" windowWidth="17040" windowHeight="10815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="R" sheetId="3" r:id="rId1"/>
@@ -1486,15 +1486,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:colOff>552451</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1809751</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>2616844</xdr:rowOff>
+      <xdr:rowOff>2158046</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1511,8 +1511,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="552450" y="1447800"/>
-          <a:ext cx="2219325" cy="2607319"/>
+          <a:off x="552451" y="1447801"/>
+          <a:ext cx="1828800" cy="2148520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1933,8 +1933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2048,7 +2048,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="209.25" customHeight="1"/>
+    <row r="8" spans="1:6" ht="172.5" customHeight="1"/>
     <row r="9" spans="1:6" ht="17.25">
       <c r="A9" s="1" t="s">
         <v>42</v>
@@ -2814,8 +2814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3065,7 +3065,7 @@
         <v>71</v>
       </c>
       <c r="B27" s="4">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>73</v>
@@ -3087,8 +3087,8 @@
         <v>72</v>
       </c>
       <c r="B29" s="5">
-        <f>PI()/400000000</f>
-        <v>7.8539816339744827E-9</v>
+        <f>PI()*0.00000004</f>
+        <v>1.2566370614359172E-7</v>
       </c>
       <c r="C29" s="2"/>
     </row>
@@ -3097,7 +3097,7 @@
         <v>76</v>
       </c>
       <c r="B30" s="4">
-        <v>4000</v>
+        <v>1</v>
       </c>
       <c r="C30" s="2"/>
     </row>
@@ -3106,7 +3106,7 @@
         <v>77</v>
       </c>
       <c r="B31" s="4">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>74</v>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="B32" s="5">
         <f>PI()*B31^2</f>
-        <v>3.1415926535897931E-4</v>
+        <v>7.8539816339744827E-5</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>75</v>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="B33" s="5">
         <f>B27^2*B29*B30*B32/B28</f>
-        <v>3.9478417604357427E-4</v>
+        <v>9.8696044010893589E-4</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>8</v>
@@ -3156,7 +3156,7 @@
   <dimension ref="B1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3206,7 +3206,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="4">
-        <v>80000</v>
+        <v>96000</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -3217,7 +3217,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="4">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
@@ -3228,7 +3228,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="4">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -3266,7 +3266,7 @@
       </c>
       <c r="C13" s="5">
         <f>C6*C7/(C6+C7)</f>
-        <v>22857.142857142859</v>
+        <v>21073.170731707316</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>11</v>
@@ -3278,7 +3278,7 @@
       </c>
       <c r="C14" s="5">
         <f>C4*C7/(C6+C7)</f>
-        <v>2.5714285714285716</v>
+        <v>1.975609756097561</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>20</v>
@@ -3290,7 +3290,7 @@
       </c>
       <c r="C15" s="5">
         <f>C14-C5</f>
-        <v>1.9214285714285717</v>
+        <v>1.325609756097561</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>20</v>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="C16" s="5">
         <f>C15/(C13+C9*(C10+1))</f>
-        <v>1.5513264129181087E-5</v>
+        <v>1.085914085914086E-5</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>24</v>
@@ -3314,7 +3314,7 @@
       </c>
       <c r="C17" s="5">
         <f>C16*C10</f>
-        <v>1.5513264129181088E-3</v>
+        <v>1.0859140859140861E-3</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>24</v>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="C18" s="5">
         <f>C4-(C8*C17)</f>
-        <v>-6.5132641291810884</v>
+        <v>3.5704295704295701</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>20</v>
@@ -3338,7 +3338,7 @@
       </c>
       <c r="C19" s="5">
         <f>C17+C16</f>
-        <v>1.56683967704729E-3</v>
+        <v>1.0967732267732268E-3</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>24</v>
@@ -3350,7 +3350,7 @@
       </c>
       <c r="C20" s="5">
         <f>C21+C16</f>
-        <v>9.5870406986323957E-5</v>
+        <v>8.4029872566457935E-5</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>24</v>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="G20" s="11">
         <f>C19*C9</f>
-        <v>1.5668396770472899</v>
+        <v>1.0967732267732269</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="17.25">
@@ -3369,7 +3369,7 @@
       </c>
       <c r="C21" s="5">
         <f>C14/C7</f>
-        <v>8.0357142857142867E-5</v>
+        <v>7.317073170731707E-5</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>24</v>
@@ -3379,7 +3379,7 @@
       </c>
       <c r="G21" s="11">
         <f>C15/C9</f>
-        <v>1.9214285714285718E-3</v>
+        <v>1.325609756097561E-3</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="17.25">
@@ -3388,7 +3388,7 @@
       </c>
       <c r="C22" s="5">
         <f>0.025/C19</f>
-        <v>15.955684787809632</v>
+        <v>22.794137739440917</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>11</v>
@@ -3400,7 +3400,7 @@
       </c>
       <c r="C23" s="9">
         <f>-C8/(C9+C22)</f>
-        <v>-9.842949008242007</v>
+        <v>-4.888569278516691</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>20</v>
@@ -3412,7 +3412,7 @@
       </c>
       <c r="C24" s="5">
         <f>1/(1/C6+1/C7+1/(C10*(C9+C22)))</f>
-        <v>18659.17100113694</v>
+        <v>17473.095982828905</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>11</v>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="C25" s="5">
         <f>C8</f>
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>11</v>
@@ -3671,7 +3671,7 @@
   <dimension ref="A1:L144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G141" sqref="G141"/>
     </sheetView>
   </sheetViews>
